--- a/ONCHO/Entomological survey Survey/Nigeria/2024/oncho_3_flies_sort.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/oncho_3_flies_sort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDD30E1-ECF9-449D-ADA8-FB823735E191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA7405E-E160-4F97-A196-14D10AE3F5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="253">
   <si>
     <t>type</t>
   </si>
@@ -106,9 +106,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -119,12 +116,6 @@
   </si>
   <si>
     <t>r_End</t>
-  </si>
-  <si>
-    <t>lbl_lga</t>
-  </si>
-  <si>
-    <t>lbl_village_community</t>
   </si>
   <si>
     <t>month</t>
@@ -354,23 +345,464 @@
     <t>RecorderID</t>
   </si>
   <si>
-    <t>oncho_3_flies_sort_v4</t>
-  </si>
-  <si>
-    <t>3. Blackfly Sorting Modules V4</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
     <t>state</t>
+  </si>
+  <si>
+    <t>oncho_3_flies_sort</t>
+  </si>
+  <si>
+    <t>3. Blackfly Sorting Modules</t>
+  </si>
+  <si>
+    <t>ADAMAWA</t>
+  </si>
+  <si>
+    <t>BAUCHI</t>
+  </si>
+  <si>
+    <t>TARABA</t>
+  </si>
+  <si>
+    <t>lga</t>
+  </si>
+  <si>
+    <t>DEMSA</t>
+  </si>
+  <si>
+    <t>FUFORE</t>
+  </si>
+  <si>
+    <t>GIRIE</t>
+  </si>
+  <si>
+    <t>GUYUK</t>
+  </si>
+  <si>
+    <t>HONG</t>
+  </si>
+  <si>
+    <t>JADA</t>
+  </si>
+  <si>
+    <t>LAMURDE</t>
+  </si>
+  <si>
+    <t>MADAGALI</t>
+  </si>
+  <si>
+    <t>MUBI NORTH</t>
+  </si>
+  <si>
+    <t>SONG</t>
+  </si>
+  <si>
+    <t>TEUNGO</t>
+  </si>
+  <si>
+    <t>ALKALERI</t>
+  </si>
+  <si>
+    <t>BOGORO</t>
+  </si>
+  <si>
+    <t>DARAZO</t>
+  </si>
+  <si>
+    <t>DASS</t>
+  </si>
+  <si>
+    <t>GAMAWA</t>
+  </si>
+  <si>
+    <t>GANJUWA</t>
+  </si>
+  <si>
+    <t>GIADE</t>
+  </si>
+  <si>
+    <t>KIRFI</t>
+  </si>
+  <si>
+    <t>MISAU</t>
+  </si>
+  <si>
+    <t>NINGI</t>
+  </si>
+  <si>
+    <t>SHIRA</t>
+  </si>
+  <si>
+    <t>TAFAWA-BALEWA</t>
+  </si>
+  <si>
+    <t>TORO</t>
+  </si>
+  <si>
+    <t>WARJI</t>
+  </si>
+  <si>
+    <t>ZAKI</t>
+  </si>
+  <si>
+    <t>ARDOKOLA</t>
+  </si>
+  <si>
+    <t>BALI</t>
+  </si>
+  <si>
+    <t>DONGA</t>
+  </si>
+  <si>
+    <t>GASHAKA</t>
+  </si>
+  <si>
+    <t>GASSOL</t>
+  </si>
+  <si>
+    <t>IBI</t>
+  </si>
+  <si>
+    <t>JALINGO/K/LAMIDO</t>
+  </si>
+  <si>
+    <t>KARIM LAMIDO</t>
+  </si>
+  <si>
+    <t>KURMI</t>
+  </si>
+  <si>
+    <t>LAU</t>
+  </si>
+  <si>
+    <t>SARDAUNA</t>
+  </si>
+  <si>
+    <t>SARDUANA</t>
+  </si>
+  <si>
+    <t>TAKUM</t>
+  </si>
+  <si>
+    <t>WUKARI</t>
+  </si>
+  <si>
+    <t>YORRO</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>BAKUREJI</t>
+  </si>
+  <si>
+    <t>DAGARAU</t>
+  </si>
+  <si>
+    <t>KWALA</t>
+  </si>
+  <si>
+    <t>YELWAN GALAMBI</t>
+  </si>
+  <si>
+    <t>NAMNAI</t>
+  </si>
+  <si>
+    <t>SIBRE</t>
+  </si>
+  <si>
+    <t>DAKKA</t>
+  </si>
+  <si>
+    <t>GAZABU</t>
+  </si>
+  <si>
+    <t>MAYO KAM</t>
+  </si>
+  <si>
+    <t>PAMANGA</t>
+  </si>
+  <si>
+    <t>BIRIM</t>
+  </si>
+  <si>
+    <t>MIRI</t>
+  </si>
+  <si>
+    <t>DOGON KANIA</t>
+  </si>
+  <si>
+    <t>SABON GARI</t>
+  </si>
+  <si>
+    <t>DARRARI</t>
+  </si>
+  <si>
+    <t>DELHI</t>
+  </si>
+  <si>
+    <t>BIBINU</t>
+  </si>
+  <si>
+    <t>SANSO</t>
+  </si>
+  <si>
+    <t>SUNTAI DONGA</t>
+  </si>
+  <si>
+    <t>TISA</t>
+  </si>
+  <si>
+    <t>FALAHI</t>
+  </si>
+  <si>
+    <t>KOCCIEL</t>
+  </si>
+  <si>
+    <t>LIRINI</t>
+  </si>
+  <si>
+    <t>DADINGA</t>
+  </si>
+  <si>
+    <t>MIYA B</t>
+  </si>
+  <si>
+    <t>NASARAWA</t>
+  </si>
+  <si>
+    <t>FILINGA</t>
+  </si>
+  <si>
+    <t>JAURO JALLO</t>
+  </si>
+  <si>
+    <t>MAI IDANU</t>
+  </si>
+  <si>
+    <t>NYABAR</t>
+  </si>
+  <si>
+    <t>SERTI</t>
+  </si>
+  <si>
+    <t>GARIN KUKA</t>
+  </si>
+  <si>
+    <t>GARIN YUSUF</t>
+  </si>
+  <si>
+    <t>CHINKANI</t>
+  </si>
+  <si>
+    <t>JAMTARI</t>
+  </si>
+  <si>
+    <t>DABEWA</t>
+  </si>
+  <si>
+    <t>HEATIYI</t>
+  </si>
+  <si>
+    <t>PUBA</t>
+  </si>
+  <si>
+    <t>DAMPAR</t>
+  </si>
+  <si>
+    <t>K/WANZA</t>
+  </si>
+  <si>
+    <t>KURMA</t>
+  </si>
+  <si>
+    <t>MALA</t>
+  </si>
+  <si>
+    <t>TAPGAR</t>
+  </si>
+  <si>
+    <t>DESEL</t>
+  </si>
+  <si>
+    <t>KODEI</t>
+  </si>
+  <si>
+    <t>WANZAMIN GOMU</t>
+  </si>
+  <si>
+    <t>G/DUTSE</t>
+  </si>
+  <si>
+    <t>GOMU</t>
+  </si>
+  <si>
+    <t>WONG</t>
+  </si>
+  <si>
+    <t>BARA</t>
+  </si>
+  <si>
+    <t>BUNDURU</t>
+  </si>
+  <si>
+    <t>FAFAN FULANI</t>
+  </si>
+  <si>
+    <t>SHUWAKA</t>
+  </si>
+  <si>
+    <t>BOLLERE</t>
+  </si>
+  <si>
+    <t>JAKAN</t>
+  </si>
+  <si>
+    <t>KATIBU</t>
+  </si>
+  <si>
+    <t>KWATAMA DAFFA</t>
+  </si>
+  <si>
+    <t>ZINDI/MISAU</t>
+  </si>
+  <si>
+    <t>MUCHALLA</t>
+  </si>
+  <si>
+    <t>KAFIN LEMO</t>
+  </si>
+  <si>
+    <t>KAFIN ZAKI</t>
+  </si>
+  <si>
+    <t>RAFIN CHIAWO</t>
+  </si>
+  <si>
+    <t>SAMA</t>
+  </si>
+  <si>
+    <t>UNGUWAR MADAIKI</t>
+  </si>
+  <si>
+    <t>GONTA</t>
+  </si>
+  <si>
+    <t>ANTERE</t>
+  </si>
+  <si>
+    <t>MBASO</t>
+  </si>
+  <si>
+    <t>NDUMYAJI</t>
+  </si>
+  <si>
+    <t>BANGIRE</t>
+  </si>
+  <si>
+    <t>DINDIBUS</t>
+  </si>
+  <si>
+    <t>DISINA B</t>
+  </si>
+  <si>
+    <t>ZIGAU</t>
+  </si>
+  <si>
+    <t>BARWO</t>
+  </si>
+  <si>
+    <t>BOLANGA</t>
+  </si>
+  <si>
+    <t>KARDAM B</t>
+  </si>
+  <si>
+    <t>CHENCHENJI</t>
+  </si>
+  <si>
+    <t>FIKYU</t>
+  </si>
+  <si>
+    <t>GALUMJE</t>
+  </si>
+  <si>
+    <t>LUMBU</t>
+  </si>
+  <si>
+    <t>BIRIJI</t>
+  </si>
+  <si>
+    <t>KOMBOR</t>
+  </si>
+  <si>
+    <t>TUNGO</t>
+  </si>
+  <si>
+    <t>WURO JATAU</t>
+  </si>
+  <si>
+    <t>GUMAU</t>
+  </si>
+  <si>
+    <t>LAME</t>
+  </si>
+  <si>
+    <t>RISHI</t>
+  </si>
+  <si>
+    <t>RUHU</t>
+  </si>
+  <si>
+    <t>GABANGA A</t>
+  </si>
+  <si>
+    <t>FIYAYI</t>
+  </si>
+  <si>
+    <t>RITI</t>
+  </si>
+  <si>
+    <t>DANDIKULU</t>
+  </si>
+  <si>
+    <t>SANDIGALOU</t>
+  </si>
+  <si>
+    <t>TIKIRZE</t>
+  </si>
+  <si>
+    <t>select_one state</t>
+  </si>
+  <si>
+    <t>r_state</t>
+  </si>
+  <si>
+    <t>select_one lga</t>
+  </si>
+  <si>
+    <t>r_lga</t>
+  </si>
+  <si>
+    <t>select_one community</t>
+  </si>
+  <si>
+    <t>r_community</t>
+  </si>
+  <si>
+    <t>state = ${r_state}</t>
+  </si>
+  <si>
+    <t>lga = ${r_lga}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -417,6 +849,12 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -503,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -565,6 +1003,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,11 +1349,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -930,8 +1369,9 @@
     <col min="9" max="9" width="26.625" style="4" customWidth="1"/>
     <col min="10" max="10" width="9.75" style="4" customWidth="1"/>
     <col min="11" max="11" width="20.25" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11" style="4"/>
+    <col min="12" max="12" width="16.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -980,20 +1420,20 @@
         <v>20</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -1005,13 +1445,13 @@
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
@@ -1026,15 +1466,15 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
@@ -1046,18 +1486,20 @@
         <v>9</v>
       </c>
       <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="L4" s="8" t="s">
+        <v>251</v>
+      </c>
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
@@ -1069,7 +1511,9 @@
         <v>9</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>252</v>
+      </c>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1077,10 +1521,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
@@ -1100,10 +1544,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="8"/>
@@ -1123,10 +1567,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="8"/>
@@ -1134,32 +1578,30 @@
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1172,23 +1614,23 @@
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1201,21 +1643,21 @@
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1228,13 +1670,13 @@
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
@@ -1254,10 +1696,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8"/>
@@ -1266,7 +1708,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -1277,10 +1719,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
@@ -1300,10 +1742,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
@@ -1323,10 +1765,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
@@ -1346,10 +1788,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="8"/>
@@ -1357,7 +1799,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1371,18 +1813,18 @@
         <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1398,18 +1840,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -1425,10 +1867,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="8"/>
@@ -1436,7 +1878,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -1450,10 +1892,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="8"/>
@@ -1471,10 +1913,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="8"/>
@@ -1491,17 +1933,17 @@
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="10"/>
@@ -1516,13 +1958,13 @@
     </row>
     <row r="24" spans="1:13" s="6" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="22"/>
@@ -1540,7 +1982,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1562,11 +2004,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:A17"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1576,7 +2018,7 @@
     <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -1586,32 +2028,38 @@
       <c r="C1" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
@@ -1620,136 +2068,2101 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>65</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>151</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E83" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E84" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E85" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>151</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>151</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>151</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>151</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>151</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>151</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>151</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>151</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>151</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>151</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E103" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>151</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E104" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>151</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E105" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>151</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E106" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>151</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>151</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>151</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>151</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E112" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>151</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>151</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E116" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>151</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>151</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E118" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E119" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>151</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E120" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>151</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E121" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>151</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E122" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>151</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E123" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>151</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E124" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>151</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E125" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>151</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>151</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E127" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>151</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E128" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>151</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E129" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>151</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E130" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>151</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>151</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E132" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>151</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E133" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>151</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E134" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>151</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E135" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>151</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E136" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>151</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E137" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E138" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E139" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E140" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>151</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E141" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E142" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>151</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E143" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E144" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E145" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E146" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E147" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E148" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E149" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E150" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E151" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E152" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E153" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>151</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E154" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>151</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E155" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>151</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E156" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>151</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E157" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>151</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E158" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>151</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E159" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>151</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E160" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>151</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E161" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1762,8 +4175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1787,10 +4200,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
